--- a/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3120,6 +3120,781 @@
         <v>0.8336</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B108" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[4942]</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>4942</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5988</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B109" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[4934]</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>4934</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5975</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8258</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B110" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[4938]</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>4938</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6006</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8222</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B111" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[4960]</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4960</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6043</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8208</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B112" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[5024]</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>5024</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8373</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B113" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[4992]</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>4992</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5978</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8351</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B114" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[5039]</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>5039</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6052</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8326</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B115" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[5061]</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5061</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5966</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8483000000000001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B116" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[4963]</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>4963</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5986</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8290999999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B117" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[4957]</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>4957</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5953</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8327</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B118" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[4962]</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>4962</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5950</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.8339</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B119" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[4939]</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>4939</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5948</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B120" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[4961]</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>4961</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5996</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8274</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B121" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[4992]</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>4992</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5985</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8341</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B122" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[4938]</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>4938</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5887</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8388</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B123" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[4999]</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>4999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6037</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8280999999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B124" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[4933]</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>4933</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5937</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8309</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[5058]</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>5058</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6064</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8341</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[4942]</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>4942</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5907</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8366</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B127" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[4949]</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>4949</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B128" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[4961]</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>4961</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6012</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8252</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B129" t="n">
+        <v>24999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[5049]</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>5049</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6084</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8299</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[5004]</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>5004</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5997</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8344</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B131" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[5033]</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>5033</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5983</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8411999999999999</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B132" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[4967]</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>4967</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5995</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8285</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B133" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[5038]</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>5038</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6065</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.8307</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B134" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[4980]</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>4980</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6039</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.8246</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B135" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[4957]</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>4957</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5923</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8369</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B136" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[4948]</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>4948</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6028</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8208</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B137" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[4945]</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>4945</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5986</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8260999999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[5005]</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>5005</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6016</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3895,6 +3895,331 @@
         <v>0.8319</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B139" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[5013]</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6040</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B140" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[5052]</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>5052</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6030</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8378</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B141" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[4911]</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>4911</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5963</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.8236</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B142" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[4926]</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>4926</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5954</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.8273</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B143" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[4920]</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>4920</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5941</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8280999999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B144" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[5053]</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>5053</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6085</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B145" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[5120]</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>5120</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6074</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.8429</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B146" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[5081]</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>5081</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6048</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.8401</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B147" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[4919]</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>4919</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5986</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.8218</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B148" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[4958]</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>4958</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5962</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8316</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B149" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[5058]</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>5058</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6029</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.8389</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B150" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[4820]</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>4820</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5860</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.8225</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B151" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[4899]</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>4899</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6003</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4220,6 +4220,356 @@
         <v>0.8161</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B152" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[5003]</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>5003</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5998</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.8341</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B153" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[4889]</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>4889</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5889</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.8302</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B154" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[4966]</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>4966</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5992</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8288</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B155" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[4939]</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>4939</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5950</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8300999999999999</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B156" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[4930]</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>4930</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5958</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8275</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B157" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[5080]</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>5080</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6058</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.8386</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[4982]</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>4982</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6026</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8268</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B159" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[4927]</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>4927</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5979</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.8241000000000001</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2228</v>
+      </c>
+      <c r="B160" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[4923]</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>4923</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6005</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8198</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B161" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[5017]</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>5017</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6054</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8287</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B162" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[4854]</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>4854</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5928</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8188</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B163" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[4910]</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4910</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6035</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8136</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B164" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[4847]</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>4847</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5950</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.8146</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B165" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[5026]</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>5026</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6078</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.8269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.6D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +4570,906 @@
         <v>0.8269</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2252</v>
+      </c>
+      <c r="B166" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[5044]</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>5044</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6003</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.8401999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B167" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[4958]</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>4958</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6018</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.8239</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B168" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[5048]</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>5048</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6042</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8355</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B169" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[4984]</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4984</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6051</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.8237</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B170" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[5015]</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>5015</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6038</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8306</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2272</v>
+      </c>
+      <c r="B171" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[4974]</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>4974</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6007</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B172" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[5081]</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>5081</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6039</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.8414</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B173" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[4922]</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>4922</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6030</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.8163</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B174" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[5043]</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>5043</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5978</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.8436</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B175" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[4948]</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>4948</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6032</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8203</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2292</v>
+      </c>
+      <c r="B176" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[5084]</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>5084</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5990</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.8487</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2296</v>
+      </c>
+      <c r="B177" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[5048]</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>5048</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6079</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B178" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[4998, 27]</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>5025</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6064</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.8287</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2304</v>
+      </c>
+      <c r="B179" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[4886]</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>4886</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5913</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.8263</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2309</v>
+      </c>
+      <c r="B180" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[5015]</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>5015</v>
+      </c>
+      <c r="F180" t="n">
+        <v>6026</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.8322000000000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B181" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[4861]</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>4861</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5966</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.8148</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B182" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[4933]</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>4933</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.8223</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B183" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[4897]</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>4897</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5893</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.831</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B184" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[4899]</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>4899</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5912</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.8287</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B185" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[5074]</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>5074</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6092</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.8329</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[5007]</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>5007</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6017</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.8321</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B187" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[5061]</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>5061</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6091</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.8309</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B188" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[4947]</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>4947</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6003</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.8241000000000001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B189" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[5016]</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>5016</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6032</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.8316</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B190" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[4965]</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>4965</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.8243</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B191" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[4899]</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>4899</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5901</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.8302</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B192" t="n">
+        <v>24999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[4992]</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>4992</v>
+      </c>
+      <c r="F192" t="n">
+        <v>5992</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8331</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B193" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[4988]</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>4988</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5992</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8324</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B194" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[4953]</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>4953</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5933</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.8348</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2369</v>
+      </c>
+      <c r="B195" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[4987]</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6078</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.8205</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B196" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[5090]</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>5090</v>
+      </c>
+      <c r="F196" t="n">
+        <v>6083</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.8368</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B197" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[4992]</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>4992</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6009</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.8308</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B198" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[4977]</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>4977</v>
+      </c>
+      <c r="F198" t="n">
+        <v>6077</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B199" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[5055]</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>5055</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5998</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.8428</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B200" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[4967]</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>4967</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6027</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.8241000000000001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B201" t="n">
+        <v>24999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[4944]</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>4944</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5977</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.8272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
